--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/129.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/129.xlsx
@@ -479,13 +479,13 @@
         <v>-16.2350571747275</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.182315496489354</v>
+        <v>-9.464323699700133</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.999894433175153</v>
+        <v>-3.038294157409935</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.813430313862085</v>
+        <v>-6.189899482075918</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-16.26191692947956</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.461443393074953</v>
+        <v>-9.749002732690625</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.021863317343569</v>
+        <v>-3.030608975641842</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.76644203896313</v>
+        <v>-6.155126325728293</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-16.32447348427404</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.28543365702467</v>
+        <v>-10.57290135052045</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.866431498006597</v>
+        <v>-2.861129115355698</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.6439373612731</v>
+        <v>-6.042021921478622</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-16.36656975107342</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.03262447250482</v>
+        <v>-11.30566444826901</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.796217477866421</v>
+        <v>-2.803627721274838</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.86989741601845</v>
+        <v>-6.274724512187461</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-16.32147987876626</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.84578740200442</v>
+        <v>-12.13791595531186</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.637826798087219</v>
+        <v>-2.62934298584578</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.409624417314728</v>
+        <v>-5.801162826099388</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-16.13427536026502</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.52938890258231</v>
+        <v>-12.82459414705755</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.596559859530098</v>
+        <v>-2.573595960345711</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.517086039039616</v>
+        <v>-5.900978542964707</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-15.76959688974613</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.05903801404433</v>
+        <v>-13.37227135953263</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.480260933387045</v>
+        <v>-2.466108154015139</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.046784336359131</v>
+        <v>-5.408747233024332</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-15.20933276954522</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.04554303316839</v>
+        <v>-14.3752203110259</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.252088279461443</v>
+        <v>-2.25934141523576</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.901839451598383</v>
+        <v>-5.235313497279988</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-14.46837033857501</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.79963349224613</v>
+        <v>-15.1258805867591</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.233811424694394</v>
+        <v>-2.236521531382631</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.517200686411313</v>
+        <v>-4.859551313419607</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-13.59398277422049</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.48006665553632</v>
+        <v>-15.81486302380494</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.043829018158107</v>
+        <v>-2.03376103727282</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.291541754631321</v>
+        <v>-4.628131768389257</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-12.64915049199985</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.13514002822208</v>
+        <v>-16.46620509018081</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.084336603150407</v>
+        <v>-2.106488779558608</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.765296641908142</v>
+        <v>-4.097029411311797</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-11.70352786771006</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.11405151169794</v>
+        <v>-17.44866458772677</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.892495089610595</v>
+        <v>-1.904160331442573</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.131236415283349</v>
+        <v>-3.445883729478552</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-10.84214283191802</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.72157364046256</v>
+        <v>-18.04325152128376</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.626302388232621</v>
+        <v>-1.637875983944707</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.80197809111678</v>
+        <v>-3.147287578567305</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-10.13002926730744</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.62333218329212</v>
+        <v>-18.95786670550391</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.480179196216116</v>
+        <v>-1.492577607007231</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.218414876552524</v>
+        <v>-2.553931321477438</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-9.601323175756445</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.5245932186137</v>
+        <v>-19.86893387565394</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.318017933218497</v>
+        <v>-1.327627683504324</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.824834068524555</v>
+        <v>-2.151670316665404</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-9.270737651423184</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.3213122157441</v>
+        <v>-20.66671334931452</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.102688828380628</v>
+        <v>-1.129829172171527</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.312846473596015</v>
+        <v>-1.646778749877081</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-9.119621581925632</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.28608401215089</v>
+        <v>-21.62988788477462</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.016187983505344</v>
+        <v>-1.03504089959743</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.9530438068996995</v>
+        <v>-1.284972960845981</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-9.099311394601131</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.12514351667144</v>
+        <v>-22.47159203446919</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8879619694734792</v>
+        <v>-0.9234944793859238</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.5779886073927728</v>
+        <v>-0.922289987524485</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-9.161432429462311</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.77995504330037</v>
+        <v>-23.14405198532877</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6465006281635254</v>
+        <v>-0.6921273035669406</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.2322470739484708</v>
+        <v>-0.585006081715938</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-9.262926354926222</v>
       </c>
       <c r="E21" t="n">
-        <v>-23.39983630594757</v>
+        <v>-23.76140643352752</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3570821815443289</v>
+        <v>-0.4092157314600821</v>
       </c>
       <c r="G21" t="n">
-        <v>0.111975752366191</v>
+        <v>-0.2332551812672837</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-9.362478083828677</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.05146640298596</v>
+        <v>-24.42200475801249</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.1529862725446612</v>
+        <v>-0.2283062907931113</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1923232149058639</v>
+        <v>-0.1003421228180807</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-9.432150801777491</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.50943515638954</v>
+        <v>-24.86138244138082</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.07047858003610351</v>
+        <v>-0.1565211943119272</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4281286813881921</v>
+        <v>0.1125256290855435</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-9.464717767198188</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.90833143937125</v>
+        <v>-25.28414599244299</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.1013371378340518</v>
+        <v>-0.1879296288292281</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4124964717951711</v>
+        <v>0.1225150561537805</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-9.459185962901726</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.1774044473744</v>
+        <v>-25.54303318883528</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2018544113746404</v>
+        <v>0.1152619203794642</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3976367080698121</v>
+        <v>0.122200840885579</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-9.421122092432226</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.17553224806803</v>
+        <v>-25.54422458839388</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1932920453161516</v>
+        <v>0.09532234315151543</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2415240889850704</v>
+        <v>-0.04022226816887456</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-9.370380036398085</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.1489155963908</v>
+        <v>-25.54003505148453</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.002189128413660333</v>
+        <v>-0.1033402601688359</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2460409334654659</v>
+        <v>-0.02265239775527818</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-9.320891025575186</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.23380608801656</v>
+        <v>-25.60663559604039</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1573143971070884</v>
+        <v>0.07258101311543724</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.04933451094671591</v>
+        <v>-0.3137859360467408</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-9.279275719009064</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.29118965137184</v>
+        <v>-25.68058092249046</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1096060455518386</v>
+        <v>0.0160091725363389</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.13363584894459</v>
+        <v>-0.3862518322756945</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-9.255550018488648</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.06456188918157</v>
+        <v>-25.43663204364058</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.01004451011869597</v>
+        <v>-0.08912201928272143</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.3122410443114171</v>
+        <v>-0.5468943881436734</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-9.251949101265136</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.61142419552658</v>
+        <v>-24.99671757585574</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.01227020160178941</v>
+        <v>-0.09777603146110236</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.8084916912242019</v>
+        <v>-1.057677491210774</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-9.261957731929465</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.66274602266615</v>
+        <v>-25.05259552438423</v>
       </c>
       <c r="F32" t="n">
-        <v>0.05067759046122953</v>
+        <v>-0.02795478040617724</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.9306690613431896</v>
+        <v>-1.194753901963646</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-9.283886428571527</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.2670049846693</v>
+        <v>-24.64600096733158</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.008211587720854325</v>
+        <v>-0.08061202243559948</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.423646632545543</v>
+        <v>-1.687927857708625</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-9.315056154154762</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.6620620395645</v>
+        <v>-24.02728491963729</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.1086164582140515</v>
+        <v>-0.1538372722293734</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.488990316028598</v>
+        <v>-1.73605516295481</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-9.34799499135098</v>
       </c>
       <c r="E35" t="n">
-        <v>-23.3156004294639</v>
+        <v>-23.6781262951513</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.3029978785051585</v>
+        <v>-0.3531021214804441</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.579392667150716</v>
+        <v>-1.850259320643187</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-9.377902123340247</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.5641546155602</v>
+        <v>-22.90544476603831</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.4141515296314128</v>
+        <v>-0.4601578818172382</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.768419335579557</v>
+        <v>-2.030029730962927</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-9.403981485734514</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.76730469540138</v>
+        <v>-22.1151540896032</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.3529973830577103</v>
+        <v>-0.4022244417426004</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.907237022610379</v>
+        <v>-2.178273876039792</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-9.420919213331988</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.37780868586003</v>
+        <v>-21.72759574088242</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.4178828359413047</v>
+        <v>-0.4614802044042525</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.168205895154505</v>
+        <v>-2.443746500761471</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-9.42223501227137</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.72898034162977</v>
+        <v>-21.078780488955</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.3106568756675682</v>
+        <v>-0.379064158015587</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.333443849319929</v>
+        <v>-2.61652562136373</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-9.413346724730147</v>
       </c>
       <c r="E40" t="n">
-        <v>-20.37183541241032</v>
+        <v>-20.70309685891167</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5503376637910473</v>
+        <v>-0.598006738437772</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.554193167534272</v>
+        <v>-2.822690114212391</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-9.397688548267455</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.79950539368427</v>
+        <v>-20.1050011881931</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2996855258862018</v>
+        <v>-0.3660242243852277</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.428965290853163</v>
+        <v>-2.716930491856928</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-9.377120894792258</v>
       </c>
       <c r="E42" t="n">
-        <v>-19.25519290303951</v>
+        <v>-19.58299798159064</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.05897044583822629</v>
+        <v>-0.1244712369553818</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.473204182155355</v>
+        <v>-2.785756727895881</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-9.365810079064712</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.35437700601454</v>
+        <v>-18.67454927200895</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.04951780318650007</v>
+        <v>-0.1110123496340874</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.406250145422768</v>
+        <v>-2.742617590032394</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-9.375482422873446</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.03200523314272</v>
+        <v>-18.35033148443645</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.00822468002369605</v>
+        <v>-0.06393242861524047</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.605488810068155</v>
+        <v>-2.958679863829399</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-9.410956224967709</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.49374138641084</v>
+        <v>-17.80185564148802</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.03252399409793964</v>
+        <v>-0.08804845044969989</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.654323099667793</v>
+        <v>-3.016037242579001</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-9.483515468741516</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.06526959130967</v>
+        <v>-17.35910014398653</v>
       </c>
       <c r="F46" t="n">
-        <v>0.02400856957263353</v>
+        <v>-0.02218107485297604</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.548772954157798</v>
+        <v>-2.87213974204559</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-9.601763126350114</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.4011887142688</v>
+        <v>-16.68195314870961</v>
       </c>
       <c r="F47" t="n">
-        <v>0.006085206982310542</v>
+        <v>-0.05976907631157158</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.88935612028246</v>
+        <v>-3.230999762937302</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-9.765039790465663</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.74224001994188</v>
+        <v>-16.02557054573968</v>
       </c>
       <c r="F48" t="n">
-        <v>0.01922987903540352</v>
+        <v>-0.03087436393988215</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.800799783861025</v>
+        <v>-3.121652849603205</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-9.972098200287938</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.1648170954104</v>
+        <v>-15.42409706088794</v>
       </c>
       <c r="F49" t="n">
-        <v>0.127699608079104</v>
+        <v>0.06916392207374673</v>
       </c>
       <c r="G49" t="n">
-        <v>-3.038542911163928</v>
+        <v>-3.386038813189022</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-10.22456056678815</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.46856843028741</v>
+        <v>-14.72195685948617</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2474941790808975</v>
+        <v>0.1660207784968362</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.990323959797851</v>
+        <v>-3.339731338037836</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-10.51460437110912</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.65734316160837</v>
+        <v>-13.90703956140577</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2610708971277674</v>
+        <v>0.1903986463881301</v>
       </c>
       <c r="G51" t="n">
-        <v>-3.101608533952523</v>
+        <v>-3.47826099440614</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-10.83188543541035</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.06093639795638</v>
+        <v>-13.31864528709292</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3332225780885198</v>
+        <v>0.2586488211020481</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.080163341897776</v>
+        <v>-3.43419230304089</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-11.17829226034035</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.42150832716648</v>
+        <v>-12.6664391287295</v>
       </c>
       <c r="F53" t="n">
-        <v>0.3922164946933375</v>
+        <v>0.3213871363195994</v>
       </c>
       <c r="G53" t="n">
-        <v>-3.118432143104141</v>
+        <v>-3.478535932765817</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-11.55119935077359</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.04332406728038</v>
+        <v>-12.28648740795976</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2850429036309679</v>
+        <v>0.20359568765259</v>
       </c>
       <c r="G54" t="n">
-        <v>-3.263102089505214</v>
+        <v>-3.646222147562644</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-11.94442827688051</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.53244931809339</v>
+        <v>-11.74594550053342</v>
       </c>
       <c r="F55" t="n">
-        <v>0.06820818396630074</v>
+        <v>0.01494869600615909</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.726608887010842</v>
+        <v>-4.089566798692013</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-12.36814000718494</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.11048439750456</v>
+        <v>-11.31904478177326</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1123423368457593</v>
+        <v>0.0319817820032447</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.817508745640946</v>
+        <v>-4.191189253349491</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-12.82798512752316</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.34673181892963</v>
+        <v>-10.54987198982185</v>
       </c>
       <c r="F57" t="n">
-        <v>0.05804855696112131</v>
+        <v>-0.02185376728193289</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.200838280543843</v>
+        <v>-4.588645383018611</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-13.32152230102077</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.06502473868421</v>
+        <v>-10.28479213418542</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.117008624335598</v>
+        <v>-0.1916347505334365</v>
       </c>
       <c r="G58" t="n">
-        <v>-4.225569640611864</v>
+        <v>-4.613416019995157</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-13.85529903329428</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.482796939009809</v>
+        <v>-9.690663431227893</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.05055209511099643</v>
+        <v>-0.1322873417518923</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.513953795306564</v>
+        <v>-4.911632494123993</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-14.42911854193564</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.13146499225209</v>
+        <v>-9.344083990401721</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.1644944067425384</v>
+        <v>-0.2415687935717798</v>
       </c>
       <c r="G60" t="n">
-        <v>-4.418379984561964</v>
+        <v>-4.802102288550113</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-15.0287274197682</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.590006623626824</v>
+        <v>-8.79196848726329</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.1897363666213863</v>
+        <v>-0.2669547687818866</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.805938333282739</v>
+        <v>-5.179108241180457</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-15.63756442858434</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.101310235453715</v>
+        <v>-8.312803295558959</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.1498310275598052</v>
+        <v>-0.2238549078269244</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.802652165269466</v>
+        <v>-5.195460527429772</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-16.24059650919404</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.648159449495893</v>
+        <v>-7.866120107204948</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.1672176057336174</v>
+        <v>-0.2420793933826071</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.788211355235042</v>
+        <v>-5.178021580044594</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-16.81170281574826</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.290700305008246</v>
+        <v>-7.505754471486439</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.3278077923902294</v>
+        <v>-0.3984538585241832</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.99056598795676</v>
+        <v>-5.36852767869455</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-17.32264331831967</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.929601500330599</v>
+        <v>-7.155862678041309</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.2683163682774261</v>
+        <v>-0.3313034372489702</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.257216919934195</v>
+        <v>-5.629954781838136</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-17.76048431542706</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.682418822678811</v>
+        <v>-6.906912539505888</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.3849426019915219</v>
+        <v>-0.4493305473671307</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.230377699108656</v>
+        <v>-5.592929749401734</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-18.10940735908671</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.518738852551552</v>
+        <v>-6.739252509314744</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.4627763423855834</v>
+        <v>-0.5399161907290334</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.330350523608077</v>
+        <v>-5.68732525289058</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-18.35144259185406</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.243748123663938</v>
+        <v>-6.46290018093159</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.4122531457193625</v>
+        <v>-0.4859889953239637</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.31422080650707</v>
+        <v>-5.661114462601444</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-18.48888965997394</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.114225971650741</v>
+        <v>-6.340709718509761</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.6910537347339192</v>
+        <v>-0.7761275185994552</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.37156509295383</v>
+        <v>-5.701713693713637</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-18.52496950392694</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.913835184355282</v>
+        <v>-6.146328298218654</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.6210753760448933</v>
+        <v>-0.6920356574470486</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.216172550525384</v>
+        <v>-5.541332983902493</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-18.46013907248198</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.808900377078848</v>
+        <v>-6.05330748652819</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.6944708257756096</v>
+        <v>-0.761464139416722</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.155659926790926</v>
+        <v>-5.460291629312207</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-18.30738420582324</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.809947761306186</v>
+        <v>-6.055912854793694</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.8151425810677988</v>
+        <v>-0.8863516162239469</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.012835995090536</v>
+        <v>-5.292932722086423</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-18.08539460756941</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.858284543397839</v>
+        <v>-6.111175465088619</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.8554930584259985</v>
+        <v>-0.9363642130793405</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.824778157071982</v>
+        <v>-5.11413114217697</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-17.80677793987136</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.083812552149412</v>
+        <v>-6.329437245763034</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.7427552386558954</v>
+        <v>-0.8167267497116477</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.690084545436305</v>
+        <v>-4.975431285871725</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-17.48387355364322</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.274462666130627</v>
+        <v>-6.507846056587236</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.071345855377536</v>
+        <v>-1.151968256276885</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.523000576570197</v>
+        <v>-4.807011902115761</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-17.14114586684014</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.761692716385462</v>
+        <v>-6.985400895042035</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.9994429281707766</v>
+        <v>-1.082500497398687</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.331172155333227</v>
+        <v>-4.596670964660589</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-16.79243811527592</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.214057964172782</v>
+        <v>-7.429059761439607</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.058188091021601</v>
+        <v>-1.14487222813667</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.25861461298438</v>
+        <v>-4.525763052469801</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-16.44316475680812</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.808121205616102</v>
+        <v>-8.028517031653719</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.121607205986923</v>
+        <v>-1.205424128779653</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.881058783634684</v>
+        <v>-4.15408566709604</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-16.11176305307711</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.226145343049573</v>
+        <v>-8.440675817414096</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.105241827434765</v>
+        <v>-1.205895451681955</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.716056490920411</v>
+        <v>-4.006064091167485</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-15.80764244771605</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.689743786675093</v>
+        <v>-8.894599049239581</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.270296489360406</v>
+        <v>-1.340706894043208</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.355769409018951</v>
+        <v>-3.648892977342356</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-15.52694571203252</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.594736128306566</v>
+        <v>-9.793699854592278</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.22095159994994</v>
+        <v>-1.310948089683965</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.350506303276577</v>
+        <v>-3.647649208572392</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-15.2763752054322</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.37791768429862</v>
+        <v>-10.56021490906681</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.305383860976231</v>
+        <v>-1.392958274684537</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.157355559452593</v>
+        <v>-3.450518404684523</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-15.05756222897001</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.19221964414546</v>
+        <v>-11.36113653540941</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.432902890654643</v>
+        <v>-1.524967964237661</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.807084089225053</v>
+        <v>-3.111388484175292</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-14.86098291831774</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.38556995586594</v>
+        <v>-12.54635652706518</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.502121895778849</v>
+        <v>-1.593218138951579</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.669536355569879</v>
+        <v>-2.969415552159615</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-14.68300301268798</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.27519193396123</v>
+        <v>-13.43464309027061</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.581435066394026</v>
+        <v>-1.663654728240065</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.34035658522036</v>
+        <v>-2.640104858781679</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-14.52728650769446</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.4271181994905</v>
+        <v>-14.57170959207452</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.773878825864557</v>
+        <v>-1.854357211432647</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.083158295894652</v>
+        <v>-2.383456446175323</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-14.39107635744325</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.50229738576157</v>
+        <v>-15.63761942793365</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.81683467148826</v>
+        <v>-1.888096075855775</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.66345834369744</v>
+        <v>-1.959645510885808</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-14.27232738949444</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.90164199039378</v>
+        <v>-17.03647961736072</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.79180218845488</v>
+        <v>-1.852131519949554</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.361130886476301</v>
+        <v>-1.672505124961072</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-14.18561373868535</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.55036877955518</v>
+        <v>-18.67458854891748</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.022292179983467</v>
+        <v>-2.071833453936559</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.173282525303215</v>
+        <v>-1.493206037543634</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-14.1374350706505</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.1387007757077</v>
+        <v>-20.25913686954874</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.242282144632991</v>
+        <v>-2.293774171709499</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.8873859081484433</v>
+        <v>-1.209666034900372</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-14.12952220843735</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.90753635113911</v>
+        <v>-21.99226973513076</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.43311555085399</v>
+        <v>-2.46952524505683</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.030602608934085</v>
+        <v>-1.352071012909827</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-14.17808157963834</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.5876061133036</v>
+        <v>-23.65674656461076</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.526502947024022</v>
+        <v>-2.570820392143264</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.8354356504724743</v>
+        <v>-1.150554287569979</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-14.29015173351033</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.68223055264852</v>
+        <v>-25.76071890818466</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.673084369639987</v>
+        <v>-2.701010251601389</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.8186382259265397</v>
+        <v>-1.125613450656491</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-14.45865829043694</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.91467766400828</v>
+        <v>-27.98464293039446</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.536570927909309</v>
+        <v>-2.555319105578661</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.9394801811556713</v>
+        <v>-1.233035795472853</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-14.68633004701944</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.19150768200149</v>
+        <v>-30.25452093557872</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.006807169075584</v>
+        <v>-3.008338968508066</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.29233083504303</v>
+        <v>-1.582940681220824</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-14.96615178426801</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.40070286351435</v>
+        <v>-32.47771178882938</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.055431981829755</v>
+        <v>-3.039917602962309</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.541097681338668</v>
+        <v>-1.834836587895634</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-15.27440986678504</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.62674783878451</v>
+        <v>-34.71000179255504</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.377620462461792</v>
+        <v>-3.338945799867333</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.736853793428156</v>
+        <v>-2.02542124036264</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-15.59467481898736</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.14138644559483</v>
+        <v>-37.21863103236102</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.63132310692876</v>
+        <v>-3.586691446541316</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.161410989979649</v>
+        <v>-2.460321356159096</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-15.90749879984106</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.64453001051012</v>
+        <v>-39.70008065146757</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.556526780793979</v>
+        <v>-3.515286026842541</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.625349833479054</v>
+        <v>-2.933830673035803</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-16.19526561329737</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.20997984464919</v>
+        <v>-42.26799183854087</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.736009160451201</v>
+        <v>-3.693655560758217</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.944291423006342</v>
+        <v>-3.237310252907013</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-16.4263473021412</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.49868458131985</v>
+        <v>-44.56118723508624</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.958722324091803</v>
+        <v>-3.905502113040187</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.516019195801678</v>
+        <v>-3.783089081470048</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-16.61151666040395</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.8212721977449</v>
+        <v>-46.87684902330802</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.104924069925358</v>
+        <v>-4.038847217483167</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.814117839204939</v>
+        <v>-4.08392401616723</v>
       </c>
     </row>
   </sheetData>
